--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-ria-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-ria-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-ria-req-3:The code element is required and must be provided. {code.exists() and code.coding.exists()}o-ria-req-4:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -469,7 +469,7 @@
     <t>riskAssessmentScore</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-risk-assessment-score|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-risk-assessment-score|0.2.0}
 </t>
   </si>
   <si>
@@ -545,10 +545,7 @@
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+    <t>Not used in this profile</t>
   </si>
   <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -574,12 +571,6 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
@@ -700,7 +691,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-cancer-risk-assessment-methods|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-cancer-risk-assessment-methods|0.2.0</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -724,7 +715,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -782,12 +773,6 @@
 </t>
   </si>
   <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
   </si>
   <si>
@@ -873,12 +858,6 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
@@ -909,7 +888,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>https://simplifier.net/onconova/ValueSets/onconova-cancer-risk-assessment-values|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-cancer-risk-assessment-values|0.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -931,12 +910,6 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
-  </si>
-  <si>
     <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
   </si>
@@ -967,12 +940,6 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
   </si>
   <si>
@@ -1116,9 +1083,6 @@
   <si>
     <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
-  </si>
-  <si>
-    <t>Not used in this profile</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
@@ -1334,12 +1298,6 @@
 </t>
   </si>
   <si>
-    <t>Prognostic factors contributing to risk assessment.</t>
-  </si>
-  <si>
-    <t>References to the prognostic factors affecting the risk assessment.</t>
-  </si>
-  <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
@@ -1356,12 +1314,6 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) US Core Profiles or other resource the observation is made from</t>
-  </si>
-  <si>
-    <t>US Core Observations, DocumentReference, QuestionnaireResponse or other resource from which this observation value is derived.</t>
-  </si>
-  <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
   </si>
   <si>
@@ -1369,12 +1321,6 @@
   </si>
   <si>
     <t>Observation.component</t>
-  </si>
-  <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -1453,6 +1399,12 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -3311,11 +3263,11 @@
         <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3379,16 +3331,16 @@
         <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>20</v>
@@ -3399,14 +3351,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3425,16 +3377,16 @@
         <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3484,7 +3436,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3499,16 +3451,16 @@
         <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>20</v>
@@ -3519,10 +3471,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3548,16 +3500,16 @@
         <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3567,29 +3519,29 @@
         <v>20</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="T15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
       </c>
@@ -3606,7 +3558,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>91</v>
@@ -3621,19 +3573,19 @@
         <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3641,10 +3593,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3667,19 +3619,19 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3707,16 +3659,16 @@
         <v>115</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
@@ -3726,7 +3678,7 @@
         <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3750,10 +3702,10 @@
         <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>20</v>
@@ -3761,13 +3713,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>20</v>
@@ -3789,19 +3741,19 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3826,13 +3778,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3850,7 +3802,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3874,10 +3826,10 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>20</v>
@@ -3885,14 +3837,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3911,19 +3863,19 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3948,11 +3900,11 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3970,7 +3922,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>91</v>
@@ -3985,30 +3937,30 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4031,19 +3983,19 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4092,7 +4044,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4107,19 +4059,19 @@
         <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4127,10 +4079,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4153,16 +4105,16 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4212,7 +4164,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4233,13 +4185,13 @@
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4247,14 +4199,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4273,19 +4225,19 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4334,7 +4286,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4349,19 +4301,19 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4369,14 +4321,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4395,19 +4347,19 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4456,7 +4408,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4471,19 +4423,19 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4491,10 +4443,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4517,16 +4469,16 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4576,7 +4528,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4597,13 +4549,13 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4611,10 +4563,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4637,17 +4589,17 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>273</v>
+        <v>168</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4696,7 +4648,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4711,19 +4663,19 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>20</v>
@@ -4731,10 +4683,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4757,19 +4709,19 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4794,11 +4746,11 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4816,7 +4768,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4825,7 +4777,7 @@
         <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>103</v>
@@ -4834,27 +4786,27 @@
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4877,19 +4829,19 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>292</v>
+        <v>168</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>293</v>
+        <v>168</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4914,13 +4866,13 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4938,7 +4890,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4947,7 +4899,7 @@
         <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>103</v>
@@ -4962,7 +4914,7 @@
         <v>134</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4973,14 +4925,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4999,19 +4951,19 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5036,13 +4988,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="Z27" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5060,7 +5012,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5078,27 +5030,27 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5121,19 +5073,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5182,7 +5134,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5203,10 +5155,10 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
@@ -5217,10 +5169,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5243,16 +5195,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5278,13 +5230,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5302,7 +5254,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5320,27 +5272,27 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5363,19 +5315,19 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5400,13 +5352,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5424,7 +5376,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5445,10 +5397,10 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5459,10 +5411,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5485,16 +5437,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5544,7 +5496,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5562,27 +5514,27 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5605,16 +5557,16 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5664,7 +5616,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5682,27 +5634,27 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5725,19 +5677,19 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5786,7 +5738,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5798,7 +5750,7 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
@@ -5807,10 +5759,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5821,10 +5773,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5847,13 +5799,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5904,7 +5856,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5928,7 +5880,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5939,10 +5891,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5968,10 +5920,10 @@
         <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>153</v>
@@ -6024,7 +5976,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6048,7 +6000,7 @@
         <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6059,14 +6011,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6088,10 +6040,10 @@
         <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>153</v>
@@ -6146,7 +6098,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6181,10 +6133,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6207,13 +6159,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6264,7 +6216,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6273,7 +6225,7 @@
         <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>103</v>
@@ -6285,10 +6237,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6299,10 +6251,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6325,13 +6277,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6382,7 +6334,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6391,7 +6343,7 @@
         <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>103</v>
@@ -6403,10 +6355,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6417,10 +6369,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6443,19 +6395,19 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6483,10 +6435,10 @@
         <v>115</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6504,7 +6456,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6522,13 +6474,13 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6539,10 +6491,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6565,19 +6517,19 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6602,13 +6554,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6626,7 +6578,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6644,13 +6596,13 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6661,10 +6613,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6687,17 +6639,17 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6746,7 +6698,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6770,7 +6722,7 @@
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6781,10 +6733,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6807,13 +6759,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6864,7 +6816,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6885,10 +6837,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6899,10 +6851,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6925,16 +6877,16 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>168</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
+        <v>168</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6984,7 +6936,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7005,10 +6957,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7019,10 +6971,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7045,16 +6997,16 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>426</v>
+        <v>168</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>427</v>
+        <v>168</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7104,7 +7056,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7125,10 +7077,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7139,10 +7091,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7165,19 +7117,19 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>431</v>
+        <v>168</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>432</v>
+        <v>168</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7226,7 +7178,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7247,10 +7199,10 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7261,10 +7213,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7287,13 +7239,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7344,7 +7296,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7368,7 +7320,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7379,10 +7331,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7408,10 +7360,10 @@
         <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>153</v>
@@ -7464,7 +7416,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7488,7 +7440,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7499,14 +7451,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7528,10 +7480,10 @@
         <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>153</v>
@@ -7586,7 +7538,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7621,10 +7573,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7647,19 +7599,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7684,13 +7636,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7708,7 +7660,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>91</v>
@@ -7726,16 +7678,16 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>20</v>
@@ -7743,10 +7695,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7769,19 +7721,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7830,7 +7782,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7848,27 +7800,27 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7891,19 +7843,19 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7928,13 +7880,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7952,7 +7904,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7961,7 +7913,7 @@
         <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>103</v>
@@ -7976,7 +7928,7 @@
         <v>134</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7987,14 +7939,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8013,19 +7965,19 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>303</v>
+        <v>440</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>304</v>
+        <v>441</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8050,13 +8002,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="Z52" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8074,7 +8026,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8092,27 +8044,27 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8138,16 +8090,16 @@
         <v>82</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8196,7 +8148,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8217,10 +8169,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="443">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing a risk assessment performed for a cancer patient, including the method used, the resulting risk level, and an optional numerical score.
-It constraints the mCODE [CancerRiskAssessment profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-risk-assessment) and expands the valuesets for cancer risk assessment methods and values.</t>
+    <t xml:space="preserve">A profile representing a risk assessment performed for a cancer patient, including the method used, the resulting risk level, and an optional numerical score.
+It constraints the mCODE [CancerRiskAssessment profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-risk-assessment) and expands the valuesets for cancer risk assessment methods and values.
+**Conformance:**
+Observation resources representing a cancer-related risk assessment in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-risk-assessment|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-risk-assessment</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -378,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -469,7 +471,7 @@
     <t>riskAssessmentScore</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-risk-assessment-score|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-risk-assessment-score}
 </t>
   </si>
   <si>
@@ -541,7 +543,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -567,7 +569,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -586,19 +588,10 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>(USCDI) registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
   </si>
   <si>
     <t>required</t>
@@ -644,10 +637,18 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="survey"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -669,7 +670,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -691,7 +692,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-cancer-risk-assessment-methods|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-cancer-risk-assessment-methods</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -715,7 +716,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -746,7 +747,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-primary-cancer-condition|4.0.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition)
 </t>
   </si>
   <si>
@@ -769,7 +770,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -798,11 +799,11 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
-  </si>
-  <si>
-    <t>(USCDI) Clinically relevant time/time-period for observation</t>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date the risk assessment was performed</t>
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time".</t>
@@ -854,7 +855,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|6.1.0|PractitionerRole|4.0.1|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|6.1.0)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|PractitionerRole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson)
 </t>
   </si>
   <si>
@@ -888,7 +889,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-cancer-risk-assessment-values|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-cancer-risk-assessment-values</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -923,7 +924,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -949,7 +950,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1008,7 +1009,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1041,7 +1042,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1053,7 +1054,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1081,7 +1082,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
   </si>
   <si>
@@ -1174,7 +1175,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1224,7 +1225,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1257,7 +1258,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1294,7 +1295,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1310,7 +1311,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|6.1.0|ImagingStudy|4.0.1|Media|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1359,7 +1360,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1767,7 +1768,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="150.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.08984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.5625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -3500,16 +3501,16 @@
         <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3519,28 +3520,28 @@
         <v>20</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3573,19 +3574,19 @@
         <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3593,10 +3594,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3619,19 +3620,19 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3641,7 +3642,7 @@
         <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>20</v>
@@ -3659,16 +3660,16 @@
         <v>115</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
@@ -3678,7 +3679,7 @@
         <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3702,10 +3703,10 @@
         <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>20</v>
@@ -3713,13 +3714,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>20</v>
@@ -3741,19 +3742,19 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3778,13 +3779,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3802,7 +3803,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3826,10 +3827,10 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>20</v>
@@ -3837,14 +3838,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3863,19 +3864,19 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3900,11 +3901,11 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3922,7 +3923,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>91</v>
@@ -3937,30 +3938,30 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3983,19 +3984,19 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4044,7 +4045,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4059,19 +4060,19 @@
         <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4079,10 +4080,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4105,16 +4106,16 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4164,7 +4165,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4185,13 +4186,13 @@
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4199,14 +4200,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4225,7 +4226,7 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>168</v>
@@ -4234,10 +4235,10 @@
         <v>168</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4286,7 +4287,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4301,19 +4302,19 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4321,18 +4322,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>91</v>
@@ -4347,19 +4348,19 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4408,7 +4409,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4423,19 +4424,19 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4443,10 +4444,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4469,16 +4470,16 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4528,7 +4529,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4549,13 +4550,13 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4563,10 +4564,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4589,7 +4590,7 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>168</v>
@@ -4599,7 +4600,7 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4648,7 +4649,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4663,19 +4664,19 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>20</v>
@@ -4683,10 +4684,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4709,19 +4710,19 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4746,11 +4747,11 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4768,7 +4769,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4777,7 +4778,7 @@
         <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>103</v>
@@ -4786,27 +4787,27 @@
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4829,7 +4830,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>168</v>
@@ -4838,10 +4839,10 @@
         <v>168</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4866,14 +4867,14 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4890,7 +4891,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4899,7 +4900,7 @@
         <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>103</v>
@@ -4914,7 +4915,7 @@
         <v>134</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4925,14 +4926,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4951,7 +4952,7 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>168</v>
@@ -4960,10 +4961,10 @@
         <v>168</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4988,13 +4989,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5012,7 +5013,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5030,27 +5031,27 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5073,19 +5074,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5134,7 +5135,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5155,10 +5156,10 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
@@ -5169,10 +5170,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5195,16 +5196,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5230,14 +5231,14 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5254,7 +5255,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5272,27 +5273,27 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5315,19 +5316,19 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5352,13 +5353,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5376,7 +5377,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5397,10 +5398,10 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5411,10 +5412,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5437,16 +5438,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5496,7 +5497,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5514,27 +5515,27 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5557,7 +5558,7 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>168</v>
@@ -5566,7 +5567,7 @@
         <v>168</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5616,7 +5617,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5634,27 +5635,27 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5677,7 +5678,7 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>168</v>
@@ -5686,10 +5687,10 @@
         <v>168</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5738,7 +5739,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5750,19 +5751,19 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5773,10 +5774,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5799,13 +5800,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5856,7 +5857,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5880,7 +5881,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5891,10 +5892,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5920,10 +5921,10 @@
         <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>153</v>
@@ -5976,7 +5977,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6000,7 +6001,7 @@
         <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6011,14 +6012,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6040,10 +6041,10 @@
         <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>153</v>
@@ -6098,7 +6099,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6133,10 +6134,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6159,13 +6160,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6216,7 +6217,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6225,7 +6226,7 @@
         <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>103</v>
@@ -6237,10 +6238,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6251,10 +6252,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6277,13 +6278,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6334,7 +6335,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6343,7 +6344,7 @@
         <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>103</v>
@@ -6355,10 +6356,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6369,10 +6370,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6395,19 +6396,19 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6435,10 +6436,10 @@
         <v>115</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6456,7 +6457,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6474,13 +6475,13 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6491,10 +6492,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6517,19 +6518,19 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6554,13 +6555,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6578,7 +6579,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6596,13 +6597,13 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6613,10 +6614,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6639,17 +6640,17 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6698,7 +6699,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6722,7 +6723,7 @@
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6733,10 +6734,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6759,13 +6760,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6816,7 +6817,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6837,10 +6838,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6851,10 +6852,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6877,7 +6878,7 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>168</v>
@@ -6886,7 +6887,7 @@
         <v>168</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6936,7 +6937,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6957,10 +6958,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6971,10 +6972,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6997,7 +6998,7 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>168</v>
@@ -7006,7 +7007,7 @@
         <v>168</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7056,7 +7057,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7077,10 +7078,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7091,10 +7092,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7117,7 +7118,7 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>168</v>
@@ -7126,10 +7127,10 @@
         <v>168</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7178,7 +7179,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7199,10 +7200,10 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7213,10 +7214,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7239,13 +7240,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7296,7 +7297,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7320,7 +7321,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7331,10 +7332,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7360,10 +7361,10 @@
         <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>153</v>
@@ -7416,7 +7417,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7440,7 +7441,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7451,14 +7452,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7480,10 +7481,10 @@
         <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>153</v>
@@ -7538,7 +7539,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7573,10 +7574,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7599,19 +7600,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="O49" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7636,13 +7637,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7660,7 +7661,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>91</v>
@@ -7678,16 +7679,16 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>20</v>
@@ -7695,10 +7696,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7721,19 +7722,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="O50" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7782,7 +7783,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7800,27 +7801,27 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7843,19 +7844,19 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="O51" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7880,14 +7881,14 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7913,7 +7914,7 @@
         <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>103</v>
@@ -7928,7 +7929,7 @@
         <v>134</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7939,14 +7940,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7965,19 +7966,19 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8002,13 +8003,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8026,7 +8027,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8044,27 +8045,27 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8090,16 +8091,16 @@
         <v>82</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8148,7 +8149,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8169,10 +8170,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-ria-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-ria-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-ria-req-3:The code element is required and must be provided. {code.exists() and code.coding.exists()}o-ria-req-4:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-ria-req-1:The subject element is required and must be provided. {subject.exists()}o-ria-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-ria-req-3:The code element is required and must be provided. {code.exists() and code.coding.exists()}o-ria-req-4:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
